--- a/public/download/book.xlsx
+++ b/public/download/book.xlsx
@@ -104,88 +104,55 @@
     <t xml:space="preserve">兌換者簽名</t>
   </si>
   <si>
+    <t xml:space="preserve">910512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASY SHOP 台北士東店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臀圍:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A=上胸圍/腰圍:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">側包</t>
+  </si>
+  <si>
+    <t xml:space="preserve">舒適</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手感細緻蕾絲</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">姊妹</t>
+  </si>
+  <si>
     <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西門</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">側包,舒適</t>
-  </si>
-  <si>
-    <t xml:space="preserve">舒適,紓壓鋼圈剪裁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手感細緻蕾絲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">看起來沒有溝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姊妹,好友,女兒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妳好</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新光三越</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">側包,集中,舒適,透氣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">集中,側包,舒適</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">姊妹,好友</t>
-  </si>
-  <si>
-    <t xml:space="preserve">嗨你好</t>
   </si>
 </sst>
 </file>
@@ -1081,49 +1048,49 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
         <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" t="s">
-        <v>39</v>
       </c>
       <c r="X2" t="s">
         <v>40</v>
@@ -1132,90 +1099,10 @@
         <v>41</v>
       </c>
       <c r="Z2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/book.xlsx
+++ b/public/download/book.xlsx
@@ -41,67 +41,10 @@
     <t xml:space="preserve">尺碼</t>
   </si>
   <si>
-    <t xml:space="preserve">上胸圍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下胸圍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">罩杯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">腰圍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">臀圍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">建議穿著內衣尺寸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A=上胸圍/腰圍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B=臀圍/腰圍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">身型密碼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您曾經穿過Audrey魔塑W弦內衣嗎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您知道Audrey魔塑W弦內衣是台灣奧黛莉公司所擁有多國專利的商品嗎?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">選購內衣時，吸引您的功能特點是什麼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您認為Audrey魔塑W弦內衣穿起來最令您滿意的地方</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未來Audrey魔塑W弦內衣推出新款時, 您會喜歡什麼花色</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您重視的內衣材質</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您喜歡Audrey魔塑W弦內衣罩杯前中心鏤空的穿著效果嗎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原因</t>
-  </si>
-  <si>
-    <t xml:space="preserve">您會推薦誰體驗or購買Audrey魔塑W弦內衣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">兌換貨號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">服務員簽名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">兌換者簽名</t>
+    <t xml:space="preserve">未完成原因</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否完成</t>
   </si>
   <si>
     <t xml:space="preserve">910512</t>
@@ -122,37 +65,37 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">臀圍:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A=上胸圍/腰圍:</t>
-  </si>
-  <si>
     <t xml:space="preserve">是</t>
   </si>
   <si>
-    <t xml:space="preserve">是 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">側包</t>
-  </si>
-  <si>
-    <t xml:space="preserve">舒適</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手感細緻蕾絲</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">姊妹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
+    <t xml:space="preserve">910897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASY SHOP 台北東湖店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  做不完</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASY SHOP 台北南東店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沒有原因</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
   </si>
 </sst>
 </file>
@@ -192,60 +135,6 @@
     <font>
       <color rgb="FFFFFF"/>
     </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFF"/>
-    </font>
   </fonts>
   <fills>
     <fill>
@@ -294,224 +183,8 @@
         <fgColor rgb="272727"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="272727"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border>
       <left/>
       <right/>
@@ -603,60 +276,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -967,143 +586,97 @@
       <c r="H1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s" s="15">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s" s="24">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s" s="25">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s" s="26">
-        <v>25</v>
-      </c>
+      <c r="I1" s="8"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
     </row>
     <row r="2">
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>42</v>
-      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
